--- a/ParameterIndependent/InputSheetBalena.xlsx
+++ b/ParameterIndependent/InputSheetBalena.xlsx
@@ -12274,8 +12274,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12405,7 +12405,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/ParameterIndependent/InputSheetBalena.xlsx
+++ b/ParameterIndependent/InputSheetBalena.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="AngleSpacing" sheetId="1" state="visible" r:id="rId2"/>
@@ -566,8 +566,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -585,108 +585,113 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>0.785398163397448</v>
+        <v>0.349065850398866</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>0.628318530717959</v>
+        <v>0.314159265358979</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>32</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>0.523598775598299</v>
+        <v>0.285599332144527</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>0.448798950512828</v>
+        <v>0.261799387799149</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>56</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>0.392699081698724</v>
+        <v>0.241660973353061</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>87</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>0.349065850398866</v>
+        <v>0.224399475256414</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>98</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>0.314159265358979</v>
+        <v>0.20943951023932</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>136</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>0.285599332144527</v>
+        <v>0.196349540849362</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>149</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>0.261799387799149</v>
+        <v>0.785398163397448</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>192</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>0.241660973353061</v>
+        <v>0.628318530717959</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>211</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>0.224399475256414</v>
+        <v>0.523598775598299</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>244</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>0.20943951023932</v>
+        <v>0.448798950512828</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>282</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>0.196349540849362</v>
+        <v>0.392699081698724</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>337</v>
-      </c>
-    </row>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -12274,8 +12279,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
